--- a/SchedulingData/static4/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_20.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>51.6</v>
+        <v>114.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.04</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>22.92</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>87.7</v>
+        <v>140.42</v>
       </c>
       <c r="E4" t="n">
-        <v>27.36</v>
+        <v>20.748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>140.42</v>
       </c>
       <c r="D5" t="n">
-        <v>76.54000000000001</v>
+        <v>210.92</v>
       </c>
       <c r="E5" t="n">
-        <v>25.996</v>
+        <v>16.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87.7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>129.14</v>
+        <v>76.12</v>
       </c>
       <c r="E6" t="n">
-        <v>23.856</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129.14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>198.54</v>
+        <v>86.44</v>
       </c>
       <c r="E7" t="n">
-        <v>18.536</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86.44</v>
       </c>
       <c r="D8" t="n">
-        <v>86.09999999999999</v>
+        <v>166.5</v>
       </c>
       <c r="E8" t="n">
-        <v>26.52</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>86.09999999999999</v>
+        <v>210.92</v>
       </c>
       <c r="D9" t="n">
-        <v>129.02</v>
+        <v>283.88</v>
       </c>
       <c r="E9" t="n">
-        <v>22.868</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>114.7</v>
       </c>
       <c r="D10" t="n">
-        <v>55.46</v>
+        <v>196.1</v>
       </c>
       <c r="E10" t="n">
-        <v>25.644</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.02</v>
+        <v>76.12</v>
       </c>
       <c r="D11" t="n">
-        <v>187.34</v>
+        <v>143.92</v>
       </c>
       <c r="E11" t="n">
-        <v>18.656</v>
+        <v>20.928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>166.5</v>
       </c>
       <c r="D12" t="n">
-        <v>71.44</v>
+        <v>212.56</v>
       </c>
       <c r="E12" t="n">
-        <v>27.036</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>71.44</v>
+        <v>283.88</v>
       </c>
       <c r="D13" t="n">
-        <v>148.14</v>
+        <v>350.98</v>
       </c>
       <c r="E13" t="n">
-        <v>21.996</v>
+        <v>9.012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.46</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>126.46</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>22.124</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="15">
@@ -713,207 +713,207 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>198.54</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>290.64</v>
+        <v>55.46</v>
       </c>
       <c r="E15" t="n">
-        <v>15.416</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>148.14</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>231.34</v>
+        <v>143.74</v>
       </c>
       <c r="E16" t="n">
-        <v>16.296</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>231.34</v>
+        <v>55.46</v>
       </c>
       <c r="D17" t="n">
-        <v>267.6</v>
+        <v>126.06</v>
       </c>
       <c r="E17" t="n">
-        <v>13.8</v>
+        <v>22.164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.09999999999999</v>
+        <v>143.92</v>
       </c>
       <c r="D18" t="n">
-        <v>178.86</v>
+        <v>192.42</v>
       </c>
       <c r="E18" t="n">
-        <v>17.544</v>
+        <v>18.208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>178.86</v>
+        <v>196.1</v>
       </c>
       <c r="D19" t="n">
-        <v>218.48</v>
+        <v>258.9</v>
       </c>
       <c r="E19" t="n">
-        <v>14.712</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>76.54000000000001</v>
+        <v>126.06</v>
       </c>
       <c r="D20" t="n">
-        <v>129.74</v>
+        <v>168.98</v>
       </c>
       <c r="E20" t="n">
-        <v>23.276</v>
+        <v>18.512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>290.64</v>
+        <v>212.56</v>
       </c>
       <c r="D21" t="n">
-        <v>332.74</v>
+        <v>272.06</v>
       </c>
       <c r="E21" t="n">
-        <v>13.336</v>
+        <v>15.304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>126.46</v>
+        <v>192.42</v>
       </c>
       <c r="D22" t="n">
-        <v>184.52</v>
+        <v>248.36</v>
       </c>
       <c r="E22" t="n">
-        <v>18.428</v>
+        <v>15.244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>332.74</v>
+        <v>143.74</v>
       </c>
       <c r="D23" t="n">
-        <v>385.44</v>
+        <v>192.66</v>
       </c>
       <c r="E23" t="n">
-        <v>9.696</v>
+        <v>20.104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>267.6</v>
+        <v>248.36</v>
       </c>
       <c r="D24" t="n">
-        <v>306.04</v>
+        <v>295.76</v>
       </c>
       <c r="E24" t="n">
-        <v>11.096</v>
+        <v>12.124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>184.52</v>
+        <v>192.66</v>
       </c>
       <c r="D25" t="n">
-        <v>285.04</v>
+        <v>245.26</v>
       </c>
       <c r="E25" t="n">
-        <v>12.996</v>
+        <v>16.984</v>
       </c>
     </row>
     <row r="26">
@@ -922,150 +922,150 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>218.48</v>
+        <v>245.26</v>
       </c>
       <c r="D26" t="n">
-        <v>278</v>
+        <v>297.16</v>
       </c>
       <c r="E26" t="n">
-        <v>12.38</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>129.74</v>
+        <v>258.9</v>
       </c>
       <c r="D27" t="n">
-        <v>196.54</v>
+        <v>351.7</v>
       </c>
       <c r="E27" t="n">
-        <v>19.196</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>285.04</v>
+        <v>272.06</v>
       </c>
       <c r="D28" t="n">
-        <v>361.08</v>
+        <v>333.3</v>
       </c>
       <c r="E28" t="n">
-        <v>9.012</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>187.34</v>
+        <v>168.98</v>
       </c>
       <c r="D29" t="n">
-        <v>249.44</v>
+        <v>208.6</v>
       </c>
       <c r="E29" t="n">
-        <v>15.576</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>249.44</v>
+        <v>208.6</v>
       </c>
       <c r="D30" t="n">
-        <v>334.66</v>
+        <v>265.3</v>
       </c>
       <c r="E30" t="n">
-        <v>12.144</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>196.54</v>
+        <v>265.3</v>
       </c>
       <c r="D31" t="n">
-        <v>253.94</v>
+        <v>303.64</v>
       </c>
       <c r="E31" t="n">
-        <v>16.076</v>
+        <v>11.396</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>361.08</v>
+        <v>303.64</v>
       </c>
       <c r="D32" t="n">
-        <v>400.1</v>
+        <v>353.16</v>
       </c>
       <c r="E32" t="n">
-        <v>6.24</v>
+        <v>8.564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>278</v>
+        <v>295.76</v>
       </c>
       <c r="D33" t="n">
-        <v>322.7</v>
+        <v>346.38</v>
       </c>
       <c r="E33" t="n">
-        <v>9.539999999999999</v>
+        <v>8.692</v>
       </c>
     </row>
   </sheetData>
